--- a/app/phy/RPA-publications/ProjectBasturmaBlueprint/data.xlsx
+++ b/app/phy/RPA-publications/ProjectBasturmaBlueprint/data.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\cprima\cprimanet\app\phy\RPA-publications\ProjectBasturmaBlueprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42DAF77-2ABC-4534-9C73-A0A8F3122FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA503741-DDB1-4B15-8D44-FB55FCD6B9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1185" windowWidth="19875" windowHeight="12705" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1665" windowWidth="19875" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="foo" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
-    <sheet name="groups" sheetId="5" r:id="rId3"/>
-    <sheet name="physPC" sheetId="3" r:id="rId4"/>
-    <sheet name="keys" sheetId="4" r:id="rId5"/>
+    <sheet name="groups" sheetId="3" r:id="rId3"/>
+    <sheet name="physPC" sheetId="4" r:id="rId4"/>
+    <sheet name="keys" sheetId="5" r:id="rId5"/>
     <sheet name="credentials" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="dependencies" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -28,277 +28,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Team Description</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Applicable Software</t>
+  </si>
+  <si>
+    <t>Other Considerations</t>
+  </si>
+  <si>
+    <t>Development Team</t>
+  </si>
+  <si>
+    <t>Responsible for developing RPA workflows and automating processes.</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>Develop, maintain, and optimize RPA workflows. Collaborate with other teams to ensure smooth deployment and operations.</t>
+  </si>
+  <si>
+    <t>GitHub, UiPath Studio</t>
+  </si>
+  <si>
+    <t>Ensure high code quality and adherence to best practices.</t>
+  </si>
+  <si>
+    <t>QA/Testing Team</t>
+  </si>
+  <si>
+    <t>Ensures developed RPA workflows function correctly and securely.</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Test RPA workflows, report bugs, and ensure workflows meet specified requirements.</t>
+  </si>
+  <si>
+    <t>UiPath Orchestrator, GitHub</t>
+  </si>
+  <si>
+    <t>Regularly update test cases to match new features or changes.</t>
+  </si>
+  <si>
+    <t>Release Managers</t>
+  </si>
+  <si>
+    <t>Oversee and manage the release process of RPA workflows.</t>
+  </si>
+  <si>
+    <t>ReleaseMgrs</t>
+  </si>
+  <si>
+    <t>Coordinate the release of new workflows or updates, ensuring all teams are aligned and all tests are passed.</t>
+  </si>
+  <si>
+    <t>Jenkins, UiPath Orchestrator</t>
+  </si>
+  <si>
+    <t>Ensure a smooth release process, mitigating any potential issues or risks.</t>
+  </si>
+  <si>
+    <t>Ops/Deployment Team</t>
+  </si>
+  <si>
+    <t>Manages the deployment, maintenance, and monitoring of RPA workflows.</t>
+  </si>
+  <si>
+    <t>OpsTeam</t>
+  </si>
+  <si>
+    <t>Handle deployment, address operational issues, and ensure workflows run optimally.</t>
+  </si>
+  <si>
+    <t>UiPath Orchestrator, Jenkins</t>
+  </si>
+  <si>
+    <t>Ensure uptime, performance, and respond quickly to any operational issues.</t>
+  </si>
+  <si>
+    <t>Reviewers/Code Review Team</t>
+  </si>
+  <si>
+    <t>Reviews RPA workflow code for quality, optimization, and best practices.</t>
+  </si>
+  <si>
+    <t>Reviewers</t>
+  </si>
+  <si>
+    <t>Perform code reviews, suggest improvements, and ensure coding standards are met.</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Promote best practices and code quality.</t>
+  </si>
+  <si>
+    <t>Security Team</t>
+  </si>
+  <si>
+    <t>Ensures that all RPA activities and workflows are secure and compliant.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Audit workflows, monitor for vulnerabilities, and ensure compliance with regulations.</t>
+  </si>
+  <si>
+    <t>UiPath Orchestrator, GitHub, SonarQube</t>
+  </si>
+  <si>
+    <t>Stay updated with security best practices and address vulnerabilities promptly.</t>
+  </si>
+  <si>
+    <t>Documentation Team</t>
+  </si>
+  <si>
+    <t>Creates and maintains documentation for RPA workflows.</t>
+  </si>
+  <si>
+    <t>DocsTeam</t>
+  </si>
+  <si>
+    <t>Produce user guides, developer documentation, and other relevant materials.</t>
+  </si>
+  <si>
+    <t>GitHub (or dedicated documentation platform)</t>
+  </si>
+  <si>
+    <t>Ensure documentation is clear, up-to-date, and user-friendly.</t>
+  </si>
+  <si>
+    <t>Product/Project Managers</t>
+  </si>
+  <si>
+    <t>Oversee the development, deployment, and overall lifecycle of RPA workflows.</t>
+  </si>
+  <si>
+    <t>ProductMgrs</t>
+  </si>
+  <si>
+    <t>Define requirements, set priorities, and ensure that the project is on track and meeting organizational goals.</t>
+  </si>
+  <si>
+    <t>Various project management tools, GitHub</t>
+  </si>
+  <si>
+    <t>Coordinate between different teams and stakeholders to ensure alignment with organizational goals.</t>
+  </si>
+  <si>
+    <t>External Collaborators</t>
+  </si>
+  <si>
+    <t>External entities that may occasionally contribute or need access to specific parts of the project.</t>
+  </si>
+  <si>
+    <t>ExtCollabs</t>
+  </si>
+  <si>
+    <t>Contribute to the project based on agreements or collaborations. Their access and activities should be monitored closely.</t>
+  </si>
+  <si>
+    <t>Ensure secure handling of credentials and close monitoring of their activities.</t>
+  </si>
+  <si>
+    <t>CI/CD Automation Team</t>
+  </si>
+  <si>
+    <t>Oversees the integration, automation, and deployment aspects of RPA workflows.</t>
+  </si>
+  <si>
+    <t>CICDAuto</t>
+  </si>
+  <si>
+    <t>Automate the integration and deployment process, ensure smooth transitions between development, testing, and production.</t>
+  </si>
+  <si>
+    <t>Jenkins, GitHub, UiPath Orchestrator</t>
+  </si>
+  <si>
+    <t>Ensure secure and efficient CI/CD processes, optimizing for speed and reliability.</t>
+  </si>
+  <si>
+    <t>dependency</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>public key</t>
+  </si>
   <si>
     <t>srv-rpapub-jenkins</t>
   </si>
   <si>
+    <t>ssh-rsa AAAAB3NzaC1yc2EAAAADAQABAAACAQDl27yAoC2f6EZJzBF17/tVC2rx/ag7l28oub6Dmmb7TnD0VEMeMdc25cXZvCT4+f9LcKDUvNpfojdtv3tOcAvuRqMvjr0iSYxsyVJFSR+0XwpaT0nBEKgWsotII/cViBDV7rdPTOInFPsKKjJ7gD56CXn2xv4iSnQZGMgkiEM/SAnXjkF2MJ2Q5wzt+GSIsJ/mSD5kQFrDm3K3wqpuoXpggUy1Fh2tzc0L2UMvcP37XelFjja5b+tOnpe2KHJ428lMnbOkNjTL79YjH3aKlMrGmFj64Hwx1mRADwYYY96XooLHOrOStLHUqKArt8nzdTdyfFS9tD9zClEWWx3sOXHBIcdc3iYTt5nTMhYjkVZ7Fx2e7EM68Tdzmh7PRXCCutPwupMpjkGbNfhit8femT8agjJuHvCQ01p9Hc/eWGg/xHs3Ve3bx4lTKNS4iBv3j6vvs89ZzPWhnF600gPx7Izcbq3QSzwzYpRpts5qMh/Q2B3vtOsufei8PWeCffdrtiM2Ft2VM03pHepi06MYtMy6FhteogKRSdYe6Q5ESzLW+lHbb7sB1VPpcQDXMQgv1b8zoMWd1TnzwHNzI0zkyBALg9Bp5yFkwQLMTaJI33rCNl0EIgZeXa95/qJSM1r31ZB2dhyyzp0uhp7Udd+nGu6vqNX++qnk+8ETRhq8266DUw== srv-rpapub-jenkins</t>
+  </si>
+  <si>
+    <t>your-jenkins-url</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
-    <t>your-jenkins-url</t>
-  </si>
-  <si>
-    <t>Raspberry Pi</t>
+    <t>pbp_developers</t>
+  </si>
+  <si>
+    <t>pbp_qa</t>
+  </si>
+  <si>
+    <t>pbp_releasemgrs</t>
+  </si>
+  <si>
+    <t>pbp_opsteam</t>
+  </si>
+  <si>
+    <t>pbp_reviewers</t>
+  </si>
+  <si>
+    <t>pbp_security</t>
+  </si>
+  <si>
+    <t>pbp_docsteam</t>
+  </si>
+  <si>
+    <t>pbp_productmgrs</t>
+  </si>
+  <si>
+    <t>pbp_extcollabs</t>
+  </si>
+  <si>
+    <t>pbp_cicdauto</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Jenkins GitHub service account</t>
   </si>
   <si>
+    <t>Jenkins Admin</t>
+  </si>
+  <si>
+    <t>Jenkins User</t>
+  </si>
+  <si>
+    <t>GitHub Organization Owner</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Admin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>ds</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Team Description</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Responsibilities</t>
-  </si>
-  <si>
-    <t>Applicable Software</t>
-  </si>
-  <si>
-    <t>Other Considerations</t>
-  </si>
-  <si>
-    <t>Development Team</t>
-  </si>
-  <si>
-    <t>Responsible for developing RPA workflows and automating processes.</t>
-  </si>
-  <si>
-    <t>Developers</t>
-  </si>
-  <si>
-    <t>Develop, maintain, and optimize RPA workflows. Collaborate with other teams to ensure smooth deployment and operations.</t>
-  </si>
-  <si>
-    <t>GitHub, UiPath Studio</t>
-  </si>
-  <si>
-    <t>Ensure high code quality and adherence to best practices.</t>
-  </si>
-  <si>
-    <t>QA/Testing Team</t>
-  </si>
-  <si>
-    <t>Ensures developed RPA workflows function correctly and securely.</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Test RPA workflows, report bugs, and ensure workflows meet specified requirements.</t>
-  </si>
-  <si>
-    <t>UiPath Orchestrator, GitHub</t>
-  </si>
-  <si>
-    <t>Regularly update test cases to match new features or changes.</t>
-  </si>
-  <si>
-    <t>Release Managers</t>
-  </si>
-  <si>
-    <t>Oversee and manage the release process of RPA workflows.</t>
-  </si>
-  <si>
-    <t>ReleaseMgrs</t>
-  </si>
-  <si>
-    <t>Coordinate the release of new workflows or updates, ensuring all teams are aligned and all tests are passed.</t>
-  </si>
-  <si>
-    <t>Jenkins, UiPath Orchestrator</t>
-  </si>
-  <si>
-    <t>Ensure a smooth release process, mitigating any potential issues or risks.</t>
-  </si>
-  <si>
-    <t>Ops/Deployment Team</t>
-  </si>
-  <si>
-    <t>Manages the deployment, maintenance, and monitoring of RPA workflows.</t>
-  </si>
-  <si>
-    <t>OpsTeam</t>
-  </si>
-  <si>
-    <t>Handle deployment, address operational issues, and ensure workflows run optimally.</t>
-  </si>
-  <si>
-    <t>UiPath Orchestrator, Jenkins</t>
-  </si>
-  <si>
-    <t>Ensure uptime, performance, and respond quickly to any operational issues.</t>
-  </si>
-  <si>
-    <t>Reviewers/Code Review Team</t>
-  </si>
-  <si>
-    <t>Reviews RPA workflow code for quality, optimization, and best practices.</t>
-  </si>
-  <si>
-    <t>Reviewers</t>
-  </si>
-  <si>
-    <t>Perform code reviews, suggest improvements, and ensure coding standards are met.</t>
-  </si>
-  <si>
-    <t>Promote best practices and code quality.</t>
-  </si>
-  <si>
-    <t>Security Team</t>
-  </si>
-  <si>
-    <t>Ensures that all RPA activities and workflows are secure and compliant.</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Audit workflows, monitor for vulnerabilities, and ensure compliance with regulations.</t>
-  </si>
-  <si>
-    <t>UiPath Orchestrator, GitHub, SonarQube</t>
-  </si>
-  <si>
-    <t>Stay updated with security best practices and address vulnerabilities promptly.</t>
-  </si>
-  <si>
-    <t>Documentation Team</t>
-  </si>
-  <si>
-    <t>Creates and maintains documentation for RPA workflows.</t>
-  </si>
-  <si>
-    <t>DocsTeam</t>
-  </si>
-  <si>
-    <t>Produce user guides, developer documentation, and other relevant materials.</t>
-  </si>
-  <si>
-    <t>GitHub (or dedicated documentation platform)</t>
-  </si>
-  <si>
-    <t>Ensure documentation is clear, up-to-date, and user-friendly.</t>
-  </si>
-  <si>
-    <t>Product/Project Managers</t>
-  </si>
-  <si>
-    <t>Oversee the development, deployment, and overall lifecycle of RPA workflows.</t>
-  </si>
-  <si>
-    <t>ProductMgrs</t>
-  </si>
-  <si>
-    <t>Define requirements, set priorities, and ensure that the project is on track and meeting organizational goals.</t>
-  </si>
-  <si>
-    <t>Various project management tools, GitHub</t>
-  </si>
-  <si>
-    <t>Coordinate between different teams and stakeholders to ensure alignment with organizational goals.</t>
-  </si>
-  <si>
-    <t>External Collaborators</t>
-  </si>
-  <si>
-    <t>External entities that may occasionally contribute or need access to specific parts of the project.</t>
-  </si>
-  <si>
-    <t>ExtCollabs</t>
-  </si>
-  <si>
-    <t>Contribute to the project based on agreements or collaborations. Their access and activities should be monitored closely.</t>
-  </si>
-  <si>
-    <t>Ensure secure handling of credentials and close monitoring of their activities.</t>
-  </si>
-  <si>
-    <t>CI/CD Automation Team</t>
-  </si>
-  <si>
-    <t>Oversees the integration, automation, and deployment aspects of RPA workflows.</t>
-  </si>
-  <si>
-    <t>CICDAuto</t>
-  </si>
-  <si>
-    <t>Automate the integration and deployment process, ensure smooth transitions between development, testing, and production.</t>
-  </si>
-  <si>
-    <t>Jenkins, GitHub, UiPath Orchestrator</t>
-  </si>
-  <si>
-    <t>Ensure secure and efficient CI/CD processes, optimizing for speed and reliability.</t>
-  </si>
-  <si>
-    <t>pbp_developers</t>
-  </si>
-  <si>
-    <t>pbp_qa</t>
-  </si>
-  <si>
-    <t>pbp_releasemgrs</t>
-  </si>
-  <si>
-    <t>pbp_opsteam</t>
-  </si>
-  <si>
-    <t>pbp_reviewers</t>
-  </si>
-  <si>
-    <t>pbp_security</t>
-  </si>
-  <si>
-    <t>pbp_docsteam</t>
-  </si>
-  <si>
-    <t>pbp_productmgrs</t>
-  </si>
-  <si>
-    <t>pbp_extcollabs</t>
-  </si>
-  <si>
-    <t>pbp_cicdauto</t>
-  </si>
-  <si>
-    <t>ssh-rsa AAAAB3NzaC1yc2EAAAADAQABAAACAQDl27yAoC2f6EZJzBF17/tVC2rx/ag7l28oub6Dmmb7TnD0VEMeMdc25cXZvCT4+f9LcKDUvNpfojdtv3tOcAvuRqMvjr0iSYxsyVJFSR+0XwpaT0nBEKgWsotII/cViBDV7rdPTOInFPsKKjJ7gD56CXn2xv4iSnQZGMgkiEM/SAnXjkF2MJ2Q5wzt+GSIsJ/mSD5kQFrDm3K3wqpuoXpggUy1Fh2tzc0L2UMvcP37XelFjja5b+tOnpe2KHJ428lMnbOkNjTL79YjH3aKlMrGmFj64Hwx1mRADwYYY96XooLHOrOStLHUqKArt8nzdTdyfFS9tD9zClEWWx3sOXHBIcdc3iYTt5nTMhYjkVZ7Fx2e7EM68Tdzmh7PRXCCutPwupMpjkGbNfhit8femT8agjJuHvCQ01p9Hc/eWGg/xHs3Ve3bx4lTKNS4iBv3j6vvs89ZzPWhnF600gPx7Izcbq3QSzwzYpRpts5qMh/Q2B3vtOsufei8PWeCffdrtiM2Ft2VM03pHepi06MYtMy6FhteogKRSdYe6Q5ESzLW+lHbb7sB1VPpcQDXMQgv1b8zoMWd1TnzwHNzI0zkyBALg9Bp5yFkwQLMTaJI33rCNl0EIgZeXa95/qJSM1r31ZB2dhyyzp0uhp7Udd+nGu6vqNX++qnk+8ETRhq8266DUw== srv-rpapub-jenkins</t>
-  </si>
-  <si>
-    <t>public key</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>by</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,10 +333,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -335,33 +364,50 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +715,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -678,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -691,52 +737,99 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -744,279 +837,279 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F85D5D4-C2A2-4D30-BB77-2AF94450A55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="6" customWidth="1"/>
-    <col min="3" max="7" width="24.28515625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1040,10 +1133,10 @@
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1052,7 +1145,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1061,45 +1154,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,26 +1211,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0ACE6-D941-4FA6-8E6D-FD1B3A8F0DF4}">
-  <dimension ref="B1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>10</v>
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1148,19 +1246,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06F3C30-6CD6-4789-A398-3E67B2393621}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D84000-F6D0-4B1B-958C-8CC238E5DA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1172,233 +1306,237 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519932FE-F192-4166-AD1B-ED97742CAD0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D10" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
